--- a/templates/language.xlsx
+++ b/templates/language.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frank/Documents/Webpages/TheUnlabeler-Webpage-Builder/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frank/Documents/Webpages/Unlabeler-Webpage-Deploy/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70C6C5A-1323-F34E-8D8F-A39A4F9834EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BE127A-DCE7-E749-B640-279DE5E209DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1540" yWindow="5000" windowWidth="27840" windowHeight="16740" xr2:uid="{7E36295F-81ED-144A-B7D7-008660E6F8FE}"/>
+    <workbookView xWindow="980" yWindow="760" windowWidth="33580" windowHeight="21580" xr2:uid="{7E36295F-81ED-144A-B7D7-008660E6F8FE}"/>
   </bookViews>
   <sheets>
     <sheet name="language" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="868">
   <si>
     <t>settings-text2</t>
   </si>
@@ -224,9 +224,6 @@
     <t xml:space="preserve">Quick-tap 6 points on the label (corners and top and bottom edges) </t>
   </si>
   <si>
-    <t xml:space="preserve">Press 'unlabel' to generate a perfectly rectangular label </t>
-  </si>
-  <si>
     <t xml:space="preserve">No more distorted labels in your tasting notes or collection! Just grab your perfect label shot and save it or share it wherever you want. </t>
   </si>
   <si>
@@ -296,9 +293,6 @@
     <t>If you want you can add a star rating to the label by clicking on the star button, tapping on the empty stars for a rating, choose your color scheme and add it.</t>
   </si>
   <si>
-    <t>Now you can save the unlabelled image to your phone by pressing the down arrow button, which stores it directly in your gallery.</t>
-  </si>
-  <si>
     <t>You can also share the perfectly rectangular label with other apps using the share icon, making it easy to add to your tasting notes or digital collection.</t>
   </si>
   <si>
@@ -416,9 +410,6 @@
     <t>How can I remove the watermark from the labels?</t>
   </si>
   <si>
-    <t>To remove the watermark, please buy the 'Pure Labels' in-app purchase. You can find the purchase option on the start or help page.</t>
-  </si>
-  <si>
     <t>Is there a dark mode for the app?</t>
   </si>
   <si>
@@ -428,9 +419,6 @@
     <t>&lt;span&gt;&amp;larr;&lt;/span&gt; App Settings</t>
   </si>
   <si>
-    <t>Once all marks are set, press the \unlabel\ button.</t>
-  </si>
-  <si>
     <t>'The Unlabeler':  Your solution for perfect bottle label photos!</t>
   </si>
   <si>
@@ -806,9 +794,6 @@
     <t>Wenn du möchtest, kannst du dem Etikett eine Sternebwertung hinzufügen, indem du auf die Stern-Schaltfläche klickst, passend auf die leeren Sterne für eine Bewertung tippst, dein Farbschema auswählst und die Bewertung hinzufügst.</t>
   </si>
   <si>
-    <t>Jetzt kannst du das 'abgelöste' Etikett auf deinem Handy speichern, indem du die Schaltfläche mit dem Pfeil nach unten drückst.</t>
-  </si>
-  <si>
     <t>Du kannst das perfekt rechteckige Etikett auch mit anderen Apps über das Teilen-Symbol teilen, um es z.B. zu deiner Tasting-App hinzuzufügen.</t>
   </si>
   <si>
@@ -951,9 +936,6 @@
   </si>
   <si>
     <t>Wie kann ich das Wasserzeichen von den Etiketten entfernen?</t>
-  </si>
-  <si>
-    <t>Um das Wasserzeichen zu entfernen, erwerbe bitte den 'Pure Labels'-In-App-Kauf. Du findest die Kaufoption auf der Start- oder Hilfeseite.</t>
   </si>
   <si>
     <t>Gibt es einen Dark Mode für die App?</t>
@@ -1492,9 +1474,6 @@
     <t>copyright</t>
   </si>
   <si>
-    <t>2025 by Mug of Coffee Software GmbH</t>
-  </si>
-  <si>
     <t>index_pagetitle</t>
   </si>
   <si>
@@ -1675,12 +1654,6 @@
     <t>Menú</t>
   </si>
   <si>
-    <t>Despega tus etiquetas digitalmente - perfectas, planas, rectangulares - sin distorsión, sin fondo molesto - para iPhone, iPad o Mac. Para amantes del vino o cerveza artesanal, sommeliers, entusiastas del gin o simplemente fans de 'Drops of God'</t>
-  </si>
-  <si>
-    <t>Stacca le tue etichette digitalmente - perfette, piatte, rettangolari - senza distorsione, senza sfondo fastidioso - per iPhone, iPad o Mac. Per amanti del vino o birra artigianale, sommelier, appassionati di gin o semplicemente fan di 'Drops of God'</t>
-  </si>
-  <si>
     <t>Extrae una etiqueta sin distorsión de la foto de una botella con solo unos clics - ¡y guárdala o envíala a tu app favorita de cata o notas! Funciona en tu iPhone, iPad o Mac.</t>
   </si>
   <si>
@@ -1771,12 +1744,6 @@
     <t>Tocca rapidamente 6 punti sull'etichetta (angoli e bordi superiore e inferiore)</t>
   </si>
   <si>
-    <t>Presiona 'unlabel' para generar una etiqueta perfectamente rectangular</t>
-  </si>
-  <si>
-    <t>Premi 'unlabel' per generare un'etichetta perfettamente rettangolare</t>
-  </si>
-  <si>
     <t>¡No más etiquetas distorsionadas en tus notas de cata o colección! Simplemente toma tu etiqueta perfecta y guárdala o compártela donde quieras.</t>
   </si>
   <si>
@@ -1801,9 +1768,6 @@
     <t>The Unlabeler - Come Usare l'App</t>
   </si>
   <si>
-    <t>Obtén una comprensión más profunda del flujo de trabajo, cómo hacer zoom, colocar y eliminar marcas, quitar etiquetas, añadir una calificación de estrellas y compartir o guardar la etiqueta</t>
-  </si>
-  <si>
     <t>Ottieni una comprensione più profonda del flusso di lavoro, come zoomare, posizionare ed eliminare segni, staccare etichette, aggiungere una valutazione a stelle e condividere o salvare l'etichetta</t>
   </si>
   <si>
@@ -1921,12 +1885,6 @@
     <t>Stacca l'Etichetta</t>
   </si>
   <si>
-    <t>Una vez que todas las marcas estén establecidas, presiona el botón 'unlabel'.</t>
-  </si>
-  <si>
-    <t>Una volta che tutti i segni sono impostati, premi il pulsante 'unlabel'.</t>
-  </si>
-  <si>
     <t>La app realizará un cálculo rápido para corregir la distorsión de perspectiva.</t>
   </si>
   <si>
@@ -1951,12 +1909,6 @@
     <t>Se vuoi, puoi aggiungere una valutazione a stelle all'etichetta cliccando sul pulsante stella, toccando le stelle vuote per una valutazione, scegliendo la tua combinazione di colori e aggiungendola.</t>
   </si>
   <si>
-    <t>Ahora puedes guardar la imagen sin etiqueta en tu teléfono presionando el botón de flecha hacia abajo, que la almacena directamente en tu galería.</t>
-  </si>
-  <si>
-    <t>Ora puoi salvare l'immagine senza etichetta sul tuo telefono premendo il pulsante freccia verso il basso, che la memorizza direttamente nella tua galleria.</t>
-  </si>
-  <si>
     <t>También puedes compartir la etiqueta perfectamente rectangular con otras apps usando el ícono de compartir, facilitando añadirla a tus notas de cata o colección digital.</t>
   </si>
   <si>
@@ -2188,12 +2140,6 @@
     <t>The Unlabeler - Acquisti in-app</t>
   </si>
   <si>
-    <t>Desbloquea todo el potencial de 'The Unlabeler' con PURE LABELS y el PAQUETE SOMMELIER</t>
-  </si>
-  <si>
-    <t>Sblocca tutto il potenziale di 'The Unlabeler' con PURE LABELS e il PACCHETTO SOMMELIER</t>
-  </si>
-  <si>
     <t>Compras en la app</t>
   </si>
   <si>
@@ -2212,12 +2158,6 @@
     <t>Con la versione gratuita di 'The Unlabeler' puoi rimuovere e salvare tutte le etichette che vuoi, ma verrà aggiunta una piccola filigrana a tutte le etichette. Provalo e rimarrai convinto!</t>
   </si>
   <si>
-    <t>Con la compra en la app 'PURE LABELS' puedes disfrutar de todas tus futuras etiquetas sin una marca de agua molesta.</t>
-  </si>
-  <si>
-    <t>Con l'acquisto in-app 'PURE LABELS' puoi goderti tutte le tue future etichette senza una filigrana fastidiosa.</t>
-  </si>
-  <si>
     <t>PAQUETE SOMMELIER</t>
   </si>
   <si>
@@ -2326,12 +2266,6 @@
     <t>Come posso rimuovere la filigrana dalle etichette?</t>
   </si>
   <si>
-    <t>Para quitar la marca de agua, por favor compra la compra en la app 'Pure Labels'. Puedes encontrar la opción de compra en la página de inicio o ayuda.</t>
-  </si>
-  <si>
-    <t>Per rimuovere la filigrana, acquista l'acquisto in-app 'Pure Labels'. Puoi trovare l'opzione di acquisto nella pagina iniziale o di aiuto.</t>
-  </si>
-  <si>
     <t>¿Hay un modo oscuro para la app?</t>
   </si>
   <si>
@@ -2348,13 +2282,424 @@
   </si>
   <si>
     <t>&lt;span&gt;←&lt;/span&gt; Impostazioni dell'app</t>
+  </si>
+  <si>
+    <t>2026 by Mug of Coffee Software GmbH</t>
+  </si>
+  <si>
+    <t>Once all marks are set, press the 'Unlabel' button.</t>
+  </si>
+  <si>
+    <t>Una vez que todas las marcas estén establecidas, presiona el botón 'Unlabel'.</t>
+  </si>
+  <si>
+    <t>Una volta che tutti i segni sono impostati, premi il pulsante 'Unlabel'.</t>
+  </si>
+  <si>
+    <t>Now you can save the unlabelled label to your phone by pressing the down arrow button, which stores it directly in your gallery.</t>
+  </si>
+  <si>
+    <t>Jetzt kannst du das 'abgelöste' Etikett auf deinem Handy in der Galerie speichern, indem du die Schaltfläche mit dem Pfeil nach unten drückst.</t>
+  </si>
+  <si>
+    <t>Ahora puedes guardar la etiqueta despegada en la galería de tu móvil pulsando el botón con la flecha hacia abajo.</t>
+  </si>
+  <si>
+    <t>Ora puoi salvare l'etichetta staccata nella galleria del tuo cellulare premendo il pulsante con la freccia rivolta verso il basso.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Press 'Unlabel' to generate a perfectly rectangular label </t>
+  </si>
+  <si>
+    <t>Presiona 'Unlabel' para generar una etiqueta perfectamente rectangular</t>
+  </si>
+  <si>
+    <t>Premi 'Unlabel' per generare un'etichetta perfettamente rettangolare</t>
+  </si>
+  <si>
+    <t>Obtén una comprensión más profunda del flujo de trabajo, cómo hacer zoom, colocar y eliminar marcas, despegar la etiqueta, añadir una calificación de estrellas y compartir o guardar la etiqueta</t>
+  </si>
+  <si>
+    <t>Desbloquea todo el potencial de 'The Unlabeler' con ETIQUETAS PURAS y el PAQUETE SOMMELIER</t>
+  </si>
+  <si>
+    <t>Sblocca tutto il potenziale di 'The Unlabeler' con ETICHETTE PURE e il PACCHETTO SOMMELIER</t>
+  </si>
+  <si>
+    <t>ETIQUETAS PURAS</t>
+  </si>
+  <si>
+    <t>ETICHETTE PURE</t>
+  </si>
+  <si>
+    <t>Con la compra en la app 'ETIQUETAS PURAS' puedes disfrutar de todas tus futuras etiquetas sin una marca de agua molesta.</t>
+  </si>
+  <si>
+    <t>Con l'acquisto in-app 'ETICHETTE PURE' puoi goderti tutte le tue future etichette senza una filigrana fastidiosa.</t>
+  </si>
+  <si>
+    <t>To remove the watermark, please buy the 'PURE LABELS' in-app purchase. You can find the purchase option on the start or help page.</t>
+  </si>
+  <si>
+    <t>Um das Wasserzeichen zu entfernen, erwerbe bitte den 'PURE LABELS'-In-App-Kauf. Du findest die Kaufoption auf der Start- oder Hilfeseite.</t>
+  </si>
+  <si>
+    <t>Para quitar la marca de agua, por favor compra la compra en la app 'ETIQUETAS PURAS'. Puedes encontrar la opción de compra en la página de inicio o ayuda.</t>
+  </si>
+  <si>
+    <t>Per rimuovere la filigrana, acquista l'acquisto in-app 'ETICHETTE PURE'. Puoi trovare l'opzione di acquisto nella pagina iniziale o di aiuto.</t>
+  </si>
+  <si>
+    <t>fr</t>
+  </si>
+  <si>
+    <t>Télécharger</t>
+  </si>
+  <si>
+    <t>Accueil</t>
+  </si>
+  <si>
+    <t>Extrais une étiquette sans distorsion d'une photo de bouteille en quelques clics – et sauvegarde-la ou envoie-la à ton app préférée de dégustation ou de notes ! Fonctionne sur ton iPhone, iPad ou Mac.</t>
+  </si>
+  <si>
+    <t>L'app incontournable pour les passionnés de vin, bière, whisky, gin, ... ou même de confiture !</t>
+  </si>
+  <si>
+    <t>Aperçu</t>
+  </si>
+  <si>
+    <t>Comment l'Utiliser</t>
+  </si>
+  <si>
+    <t>Achats Intégrés</t>
+  </si>
+  <si>
+    <t>Paramètres</t>
+  </si>
+  <si>
+    <t>Mentions Légales</t>
+  </si>
+  <si>
+    <t>Politique de Confidentialité</t>
+  </si>
+  <si>
+    <t>The Unlabeler - Aperçu</t>
+  </si>
+  <si>
+    <t>Le flux de travail est super simple et rapide - prends une photo, quelques clics, fini !</t>
+  </si>
+  <si>
+    <t>ou</t>
+  </si>
+  <si>
+    <t>Es-tu un amateur de vin ou de bière et souhaites-tu conserver l'étiquette de cette merveilleuse boisson que tu viens de déguster pour tes notes de dégustation ? As-tu déjà essayé de photographier une belle étiquette, pour te retrouver avec une image déformée qui ne représente pas correctement l'original, avec une bouteille coupée et un arrière-plan gênant ? Ou as-tu déjà essayé de mouiller une bouteille, de décoller l'étiquette, de la sécher puis de la photographier ?</t>
+  </si>
+  <si>
+    <t>Découvre 'The Unlabeler' – pour des souvenirs numériques parfaits de tes boissons.</t>
+  </si>
+  <si>
+    <t>Cette application intuitive transforme les étiquettes de bouteilles déformées par la perspective en belles images plates – parfaites pour les notes de dégustation, les collections numériques ou pour partager avec tes amis. Que tu sois amateur de vin, explorateur de bière artisanale ou connaisseur de spiritueux, c'est super simple à utiliser :</t>
+  </si>
+  <si>
+    <t>Sélectionne une photo de ta bouteille</t>
+  </si>
+  <si>
+    <t>Touche rapidement 6 points sur l'étiquette (les coins et les bords supérieur et inférieur)</t>
+  </si>
+  <si>
+    <t>Appuie sur 'Unlabel' pour générer une étiquette parfaitement rectangulaire</t>
+  </si>
+  <si>
+    <t>Plus d'étiquettes déformées dans tes notes de dégustation ou ta collection ! Prends simplement ton étiquette parfaite et sauvegarde-la ou partage-la où tu veux.</t>
+  </si>
+  <si>
+    <t>'The Unlabeler' : Ta solution pour des photos parfaites d'étiquettes de bouteilles !</t>
+  </si>
+  <si>
+    <t>&lt;span&gt;&amp;rarr;&lt;/span&gt; Comment Utiliser l'App</t>
+  </si>
+  <si>
+    <t>The Unlabeler - Comment Utiliser l'App</t>
+  </si>
+  <si>
+    <t>Comprends mieux le flux de travail, comment zoomer, placer et supprimer des marques, décoller l'étiquette, ajouter une note en étoiles, et partager ou sauvegarder l'étiquette</t>
+  </si>
+  <si>
+    <t>Comment Utiliser l'App</t>
+  </si>
+  <si>
+    <t>Commencer avec 'The Unlabeler' est aussi simple que de prendre une photo. Suis ces étapes faciles pour transformer tes étiquettes déformées par la perspective en souvenirs numériques parfaits :</t>
+  </si>
+  <si>
+    <t>Sélectionne ou Prends une Photo</t>
+  </si>
+  <si>
+    <t>Sur le premier écran, prends une photo de ta bouteille ou choisis-en une dans ta galerie.</t>
+  </si>
+  <si>
+    <t>Assure-toi que l'étiquette est clairement visible et aussi grande que possible sur un fond contrasté.</t>
+  </si>
+  <si>
+    <t>Si possible, utilise un zoom téléobjectif et non un objectif grand-angle pour éviter une distorsion supplémentaire.</t>
+  </si>
+  <si>
+    <t>Cela aide l'app à traiter et transformer l'étiquette avec précision.</t>
+  </si>
+  <si>
+    <t>Marque l'Étiquette</t>
+  </si>
+  <si>
+    <t>Sur l'écran suivant, touche rapidement pour marquer les quatre coins et (approximativement) le centre des bords supérieur et inférieur de l'étiquette.</t>
+  </si>
+  <si>
+    <t>Tu peux faire glisser l'image avec un doigt et zoomer avec deux doigts ou les boutons de zoom pour voir les détails.</t>
+  </si>
+  <si>
+    <t>Pour plus de précision, utilise la loupe en bas pour obtenir une vue plus rapprochée de chaque point.</t>
+  </si>
+  <si>
+    <t>Positionne le coin supérieur gauche de l'étiquette dans la zone agrandie et touche pour le marquer.</t>
+  </si>
+  <si>
+    <t>Ensuite, marque le centre du bord supérieur et le coin supérieur droit. Répète ce processus pour le bord inférieur.</t>
+  </si>
+  <si>
+    <t>La séquence n'a pas d'importance – assure-toi simplement que les six points sont marqués avec précision.</t>
+  </si>
+  <si>
+    <t>Ajuste les Marques</t>
+  </si>
+  <si>
+    <t>Si tu dois corriger une marque, touche simplement le bouton gomme pour supprimer la dernière marque que tu as placée.</t>
+  </si>
+  <si>
+    <t>Alternativement, tu peux toucher une marque spécifique pour la sélectionner, puis appuyer sur le bouton gomme pour la supprimer.</t>
+  </si>
+  <si>
+    <t>Cette fonction garantit que tu peux faire des ajustements facilement sans recommencer.</t>
+  </si>
+  <si>
+    <t>Décolle l'Étiquette</t>
+  </si>
+  <si>
+    <t>Une fois que toutes les marques sont placées, appuie sur le bouton 'Unlabel'.</t>
+  </si>
+  <si>
+    <t>L'app effectuera un calcul rapide pour corriger la distorsion de perspective.</t>
+  </si>
+  <si>
+    <t>En quelques instants, tu verras l'étiquette transformée affichée sur l'écran suivant.</t>
+  </si>
+  <si>
+    <t>Ajoute une Note en Étoiles, Sauvegarde ou Partage</t>
+  </si>
+  <si>
+    <t>Si tu veux, tu peux ajouter une note en étoiles à l'étiquette en cliquant sur le bouton étoile, en touchant les étoiles vides pour une évaluation, en choisissant ton schéma de couleurs et en l'ajoutant.</t>
+  </si>
+  <si>
+    <t>Maintenant, tu peux sauvegarder l'étiquette décollée dans la galerie de ton téléphone en appuyant sur le bouton avec la flèche vers le bas.</t>
+  </si>
+  <si>
+    <t>Tu peux également partager l'étiquette parfaitement rectangulaire avec d'autres apps en utilisant l'icône de partage, ce qui facilite son ajout à tes notes de dégustation ou à ta collection numérique.</t>
+  </si>
+  <si>
+    <t>Si tu veux décoller une autre étiquette, touche l'icône plus pour recommencer le processus.</t>
+  </si>
+  <si>
+    <t>Si des marques nécessitent un ajustement supplémentaire, touche simplement le bouton retour (chevron dans le coin supérieur gauche) pour les affiner.</t>
+  </si>
+  <si>
+    <t>Avec 'The Unlabeler', capturer des photos d'étiquettes parfaites n'a jamais été aussi facile. Transforme tes étiquettes de bouteilles en images numériques impeccables et partage-les facilement. Que tu les ajoutes à tes notes de dégustation, à tes collections numériques ou que tu les partages simplement avec des amis, 'The Unlabeler' garantit que les souvenirs de tes boissons préférées sont au mieux de leur forme.</t>
+  </si>
+  <si>
+    <t>&lt;span&gt;&amp;larr;&lt;/span&gt; Aperçu</t>
+  </si>
+  <si>
+    <t>&lt;span&gt;&amp;rarr;&lt;/span&gt; Achats Intégrés</t>
+  </si>
+  <si>
+    <t>The Unlabeler - Paramètres de l'App</t>
+  </si>
+  <si>
+    <t>Optimise 'The Unlabeler' avec ces paramètres</t>
+  </si>
+  <si>
+    <t>Paramètres de l'App</t>
+  </si>
+  <si>
+    <t>Accéder aux paramètres de 'The Unlabeler' est simple. Touche l'icône d'engrenage située dans le coin supérieur droit de l'écran pour personnaliser ton expérience :</t>
+  </si>
+  <si>
+    <t>Mode Gaucher</t>
+  </si>
+  <si>
+    <t>: Pour les utilisateurs gauchers, tu peux inverser les boutons en bas de la droite vers la gauche en activant le 'mode gaucher'. Cela rend l'app plus confortable et intuitive à utiliser.</t>
+  </si>
+  <si>
+    <t>Afficher les Boutons de Zoom</t>
+  </si>
+  <si>
+    <t>: Affiche des boutons de zoom supplémentaires sur le côté droit de l'écran. Tu peux zoomer avec deux doigts dans tous les cas.</t>
+  </si>
+  <si>
+    <t>Sauvegarder Photo Caméra</t>
+  </si>
+  <si>
+    <t>Si tu prends une photo directement avec l'appareil photo, tu peux choisir si la photo doit être sauvegardée dans la galerie ou non. Si tu ne la sauvegardes pas, elle sera utilisée uniquement pour décoller l'étiquette.</t>
+  </si>
+  <si>
+    <t>Les paramètres suivants ne sont disponibles que si tu as acheté le 'Pack sommelier'.</t>
+  </si>
+  <si>
+    <t>Options de Largeur d'Étiquette</t>
+  </si>
+  <si>
+    <t>: Personnalise la façon dont l'app gère la largeur de tes images sans étiquette. Il y a trois paramètres différents</t>
+  </si>
+  <si>
+    <t>Illimité</t>
+  </si>
+  <si>
+    <t>La largeur de l'étiquette est automatiquement ajustée pour être proportionnelle à sa hauteur dans la photo, sans restrictions.</t>
+  </si>
+  <si>
+    <t>Limité</t>
+  </si>
+  <si>
+    <t>La largeur est ajustée pour être proportionnelle à la hauteur, mais si elle dépasse une limite définie, l'étiquette sera réduite pour rester dans cette limite.</t>
+  </si>
+  <si>
+    <t>Fixe</t>
+  </si>
+  <si>
+    <t>L'étiquette est redimensionnée pour correspondre exactement à une largeur spécifique. Cette option est particulièrement utile pour maintenir une présentation cohérente dans ton app de dégustation, car toutes les étiquettes auront la même largeur, offrant un aspect clair et uniforme.</t>
+  </si>
+  <si>
+    <t>Tu peux définir la limite pour les options 'Limité' et 'Fixe' dans le champ de saisie, en choisissant une valeur entre 300 et 5000 pixels selon tes besoins.</t>
+  </si>
+  <si>
+    <t>Nom du Fichier de l'Étiquette Partagée</t>
+  </si>
+  <si>
+    <t>Tu peux spécifier le nom du fichier de l'étiquette partagée. Le nom par défaut est 'TonÉtiquette.jpg'.</t>
+  </si>
+  <si>
+    <t>Tu peux sauvegarder l'étiquette dans l'album 'TheUnlabeler'. Si l'album n'existe pas, il sera créé automatiquement.</t>
+  </si>
+  <si>
+    <t>Animation Unlabel</t>
+  </si>
+  <si>
+    <t>Après avoir appuyé sur le bouton 'Unlabel', tu verras une animation jusqu'à ce que ton étiquette finale soit calculée. Selon la vitesse de ton appareil et la taille de l'étiquette, le calcul est normalement plus rapide que l'animation, donc tu ne verras que le début. Si tu veux voir l'animation complète, tu peux activer ce paramètre.</t>
+  </si>
+  <si>
+    <t>Ces paramètres te permettent d'adapter 'The Unlabeler' à tes préférences, afin que tu puisses capturer la photo d'étiquette parfaite à chaque fois.</t>
+  </si>
+  <si>
+    <t>Paramètres de Base</t>
+  </si>
+  <si>
+    <t>Pack Sommelier</t>
+  </si>
+  <si>
+    <t>&lt;span&gt;&amp;larr;&lt;/span&gt; Achats Intégrés</t>
+  </si>
+  <si>
+    <t>The Unlabeler - Achats Intégrés</t>
+  </si>
+  <si>
+    <t>Débloquer des fonctionnalités avancées avec les achats intégrés de 'The Unlabeler'</t>
+  </si>
+  <si>
+    <t>VERSION GRATUITE</t>
+  </si>
+  <si>
+    <t>Avec la version gratuite de 'The Unlabeler', tu peux décoller et sauvegarder autant d'étiquettes que tu veux, mais un petit filigrane sera ajouté à toutes les étiquettes. Essaie-le simplement et tu seras convaincu !</t>
+  </si>
+  <si>
+    <t>ÉTIQUETTES PURES</t>
+  </si>
+  <si>
+    <t>Avec l'achat intégré 'ÉTIQUETTES PURES', tu peux profiter de toutes tes futures étiquettes sans filigrane gênant.</t>
+  </si>
+  <si>
+    <t>PACK SOMMELIER</t>
+  </si>
+  <si>
+    <t>Pour les utilisateurs avancés, il y a le 'PACK SOMMELIER' qui débloque une variété de fonctions avancées, comme :</t>
+  </si>
+  <si>
+    <t>Sauvegarde tes étiquettes dans un album séparé,</t>
+  </si>
+  <si>
+    <t>Utilise un nom personnalisable pour les étiquettes partagées,</t>
+  </si>
+  <si>
+    <t>Définis une largeur en pixels fixe pour toutes les étiquettes, afin qu'elles aient toujours la même largeur dans ton app de dégustation,</t>
+  </si>
+  <si>
+    <t>Zoome sur l'étiquette finale pour vérifier sa qualité,</t>
+  </si>
+  <si>
+    <t>Ajoute une note en étoiles à l'étiquette finale et bien plus encore.</t>
+  </si>
+  <si>
+    <t>Tous les achats intégrés sont des achats uniques. Pas d'abonnement ni de frais cachés.</t>
+  </si>
+  <si>
+    <t>L'app fonctionne sur iPhone, iPad et Mac avec les mêmes achats intégrés.</t>
+  </si>
+  <si>
+    <t>&lt;span&gt;&amp;larr;&lt;/span&gt; Comment Utiliser</t>
+  </si>
+  <si>
+    <t>&lt;span&gt;&amp;rarr;&lt;/span&gt; Paramètres</t>
+  </si>
+  <si>
+    <t>Obtiens la réponse à tes questions</t>
+  </si>
+  <si>
+    <t>Voici les questions fréquemment posées :</t>
+  </si>
+  <si>
+    <t>Y a-t-il des restrictions pour la forme de l'étiquette et de la bouteille ?</t>
+  </si>
+  <si>
+    <t>Oui, l'app Unlabeler peut corriger la distorsion d'étiquettes rectangulaires sur des bouteilles cylindriques, ce qui s'applique à la plupart des bouteilles standard.</t>
+  </si>
+  <si>
+    <t>Si ton étiquette a une forme différente, utilise simplement les 6 marques pour marquer une zone englobante qui pourrait correspondre à une étiquette rectangulaire et décolle-la.</t>
+  </si>
+  <si>
+    <t>Comment puis-je supprimer le filigrane des étiquettes ?</t>
+  </si>
+  <si>
+    <t>Pour supprimer le filigrane, achète l'achat intégré 'ÉTIQUETTES PURES'. Tu peux trouver l'option d'achat sur la page de démarrage ou d'aide.</t>
+  </si>
+  <si>
+    <t>Y a-t-il un mode sombre pour l'app ?</t>
+  </si>
+  <si>
+    <t>Oui, absolument. Essaie-le et profite du nouveau look !</t>
+  </si>
+  <si>
+    <t>&lt;span&gt;&amp;larr;&lt;/span&gt; Paramètres</t>
+  </si>
+  <si>
+    <t>Décolle tes étiquettes numériquement - parfaites, plates, rectangulaires - sans distorsion, sans fond gênant - pour iPhone, iPad ou Mac. Pour les amateurs de vin ou de bière artisanale, sommeliers, passionnés de gin ou simplement fans de 'Les gouttes de dieu'</t>
+  </si>
+  <si>
+    <t>Stacca le tue etichette digitalmente - perfette, piatte, rettangolari - senza distorsione, senza sfondo fastidioso - per iPhone, iPad o Mac. Per amanti del vino o birra artigianale, sommelier, appassionati di gin o semplicemente fan di 'Nettare degli dei'</t>
+  </si>
+  <si>
+    <t>Despega tus etiquetas digitalmente - perfectas, planas, rectangulares - sin distorsión, sin fondo molesto - para iPhone, iPad o Mac. Para amantes del vino o cerveza artesanal, sommeliers, entusiastas del gin o simplemente fans de 'Las gotas de Dios'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2376,6 +2721,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2385,7 +2736,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2393,11 +2744,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2407,6 +2773,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2726,1702 +3095,2000 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61E6F1F5-4CE9-414F-86C2-1BFBDD82ACCF}">
-  <dimension ref="A1:E181"/>
+  <dimension ref="A1:F181"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A159" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F128" sqref="F128:F181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="43.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="43.33203125" style="1"/>
+    <col min="6" max="6" width="49.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>514</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>514</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>467</v>
+        <v>731</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>467</v>
+        <v>731</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>467</v>
+        <v>731</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>731</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>516</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>518</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>455</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>457</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>461</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>463</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>468</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>469</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+        <v>462</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>528</v>
+        <v>867</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+        <v>866</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>522</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>524</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>526</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>530</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>534</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F17" s="1" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>537</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>539</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+        <v>526</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>522</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="187" x14ac:dyDescent="0.2">
+        <v>540</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="187" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>542</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+        <v>544</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="136" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>546</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>548</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>143</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>144</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>145</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>146</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>466</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>486</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>147</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>148</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>147</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="D36" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>149</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>148</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="1" t="s">
+      <c r="D37" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>150</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>149</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>150</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="D32" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>473</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="D33" s="1" t="s">
+      <c r="F38" s="1" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>151</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>493</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="D34" s="1" t="s">
+      <c r="F39" s="1" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>152</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>151</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D35" s="1" t="s">
+      <c r="F40" s="1" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>153</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>152</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D36" s="1" t="s">
+      <c r="F41" s="1" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>154</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>153</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D37" s="1" t="s">
+      <c r="F42" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>155</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>154</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D38" s="1" t="s">
+      <c r="F43" s="1" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>156</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>155</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D39" s="1" t="s">
+      <c r="F44" s="1" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>157</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>156</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D40" s="1" t="s">
+      <c r="F45" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>158</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>157</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D41" s="1" t="s">
+      <c r="F46" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>159</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>158</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="D42" s="1" t="s">
+      <c r="F47" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>160</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>159</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D43" s="1" t="s">
+      <c r="F48" s="1" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>161</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>160</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D44" s="1" t="s">
+      <c r="F49" s="1" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>162</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>161</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D45" s="1" t="s">
+      <c r="F50" s="1" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>163</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>162</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D46" s="1" t="s">
+      <c r="F51" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>164</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>163</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D47" s="1" t="s">
+      <c r="F52" s="1" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>165</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>164</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D48" s="1" t="s">
+      <c r="F53" s="1" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>166</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>167</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>165</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D49" s="1" t="s">
+      <c r="F55" s="1" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>168</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>166</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D50" s="1" t="s">
+      <c r="F56" s="1" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>169</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>167</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D51" s="1" t="s">
+      <c r="F57" s="1" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>170</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E58" s="1" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>168</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D52" s="1" t="s">
+      <c r="F58" s="1" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>171</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>172</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>169</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D53" s="1" t="s">
+      <c r="F60" s="1" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>173</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E61" s="1" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>170</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D54" s="1" t="s">
+      <c r="F61" s="1" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>174</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E62" s="1" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>171</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D55" s="1" t="s">
+      <c r="F62" s="1" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="153" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>175</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E63" s="1" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>172</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D56" s="1" t="s">
+      <c r="F63" s="1" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>176</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E64" s="1" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>173</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D57" s="1" t="s">
+      <c r="F64" s="1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>177</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E65" s="1" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" ht="102" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>174</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="D58" s="1" t="s">
+      <c r="F65" s="1" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>469</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E66" s="1" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>175</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D59" s="1" t="s">
+      <c r="F66" s="1" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>487</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E67" s="1" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>176</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>177</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>178</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="153" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>179</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>180</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>181</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>476</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>494</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F67" s="1" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+        <v>623</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>625</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>0</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+        <v>627</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>1</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>644</v>
+        <v>628</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>629</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>2</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>646</v>
+        <v>630</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>631</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>3</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>648</v>
+        <v>632</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>633</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>4</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>650</v>
+        <v>634</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+        <v>635</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>5</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>652</v>
+        <v>636</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>637</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>6</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>654</v>
+        <v>638</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>639</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>7</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>656</v>
+        <v>640</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>641</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>8</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>658</v>
+        <v>642</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>643</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>9</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>660</v>
+        <v>644</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>645</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>10</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>662</v>
+        <v>646</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>647</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>11</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>664</v>
+        <v>648</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+        <v>649</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>12</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>666</v>
+        <v>650</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>651</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>13</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>668</v>
+        <v>652</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+        <v>653</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>14</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>670</v>
+        <v>654</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+        <v>655</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>15</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>672</v>
+        <v>656</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>657</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>16</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>674</v>
+        <v>658</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>659</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>17</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>676</v>
+        <v>660</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>661</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>18</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>678</v>
+        <v>662</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>663</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>19</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>680</v>
+        <v>664</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>665</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>20</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>682</v>
+        <v>666</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="153" x14ac:dyDescent="0.2">
+        <v>667</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="153" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>21</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>684</v>
+        <v>668</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+        <v>669</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>22</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>686</v>
+        <v>670</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>671</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>23</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>673</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>24</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>690</v>
+        <v>674</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>675</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>25</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>692</v>
+        <v>676</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>677</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>26</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>694</v>
+        <v>678</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>679</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>696</v>
+        <v>680</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>680</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>697</v>
+        <v>681</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>682</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>699</v>
+        <v>743</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>744</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>27</v>
       </c>
@@ -4429,517 +5096,607 @@
         <v>49</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>701</v>
+        <v>683</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>684</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>28</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>703</v>
+        <v>685</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+        <v>686</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>29</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>705</v>
+        <v>687</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>688</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>30</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>105</v>
+        <v>745</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>746</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>31</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>707</v>
+        <v>747</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>748</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>32</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>709</v>
+        <v>689</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>690</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>33</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>711</v>
+        <v>691</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>692</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>34</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>713</v>
+        <v>693</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>694</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>35</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>715</v>
+        <v>695</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>696</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>36</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>717</v>
+        <v>697</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>698</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>37</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>719</v>
+        <v>699</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>700</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>38</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>721</v>
+        <v>701</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>702</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>39</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>723</v>
+        <v>703</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>704</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>40</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>725</v>
+        <v>705</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>706</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>41</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>727</v>
+        <v>707</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>708</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>42</v>
       </c>
       <c r="B115" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>475</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>489</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>180</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>181</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C119" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>182</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>507</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>183</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>184</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>185</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>186</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C125" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="D125" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>187</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D126" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="E115" s="1" t="s">
+      <c r="E126" s="1" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>482</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>496</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>184</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>185</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>186</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>514</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>187</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
+      <c r="F126" s="1" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
         <v>188</v>
       </c>
-      <c r="B123" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>189</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>190</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>191</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>192</v>
-      </c>
       <c r="B127" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>696</v>
+        <v>680</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>680</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>479</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>503</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>51</v>
@@ -4947,798 +5704,939 @@
       <c r="E130" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F130" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
+        <v>314</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>315</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="C132" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>316</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C133" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="D133" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>317</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C134" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="D131" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>321</v>
-      </c>
-      <c r="B132" s="1" t="s">
+      <c r="D134" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>318</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>319</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="C136" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>481</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>491</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>332</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>335</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="D132" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
+      <c r="C140" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>337</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>339</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="153" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>340</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="136" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>341</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>342</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>343</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>344</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>345</v>
+      </c>
+      <c r="B148" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B133" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
+      <c r="C148" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="B134" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>324</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>325</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>488</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>498</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>338</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="C139" s="1" t="s">
+      <c r="D148" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>346</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>347</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>348</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C151" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="D139" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>341</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="C140" s="1" t="s">
+      <c r="D151" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>349</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>350</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>351</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C154" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="D140" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>343</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="C141" s="1" t="s">
+      <c r="D154" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="204" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>352</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>353</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C156" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="D141" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>345</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" ht="153" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>346</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" ht="136" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>347</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>348</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="C145" s="1" t="s">
+      <c r="D156" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="153" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>354</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>355</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C158" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="D145" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>349</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>350</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="C147" s="1" t="s">
+      <c r="D158" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="372" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>356</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>357</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C160" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="D147" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>351</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>352</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="C149" s="1" t="s">
+      <c r="D160" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="136" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>358</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>359</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C162" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="D149" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>353</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>354</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="C151" s="1" t="s">
+      <c r="D162" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="204" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>360</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>361</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>362</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C165" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="D151" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" ht="102" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>355</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" ht="102" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
-        <v>356</v>
-      </c>
-      <c r="B153" s="1" t="s">
+      <c r="D165" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="C153" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="D153" s="1" t="s">
+      <c r="E165" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="E153" s="1" t="s">
+      <c r="F165" s="1" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
-        <v>357</v>
-      </c>
-      <c r="B154" s="1" t="s">
+    <row r="166" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>363</v>
+      </c>
+      <c r="B166" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="C154" s="1" t="s">
+      <c r="C166" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="D154" s="1" t="s">
+      <c r="D166" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="E154" s="1" t="s">
+      <c r="E166" s="1" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" ht="204" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>358</v>
-      </c>
-      <c r="B155" s="1" t="s">
+      <c r="F166" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>364</v>
+      </c>
+      <c r="B167" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="C155" s="1" t="s">
+      <c r="C167" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="D155" s="1" t="s">
+      <c r="D167" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="E155" s="1" t="s">
+      <c r="E167" s="1" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>359</v>
-      </c>
-      <c r="B156" s="1" t="s">
+      <c r="F167" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>365</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>366</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>367</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>368</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="136" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>369</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>370</v>
+      </c>
+      <c r="B173" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="C156" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="D156" s="1" t="s">
+      <c r="C173" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D173" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="E156" s="1" t="s">
+      <c r="E173" s="1" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" ht="153" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>360</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
-        <v>361</v>
-      </c>
-      <c r="B158" s="1" t="s">
+      <c r="F173" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>371</v>
+      </c>
+      <c r="B174" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="C158" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="D158" s="1" t="s">
+      <c r="C174" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D174" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="E158" s="1" t="s">
+      <c r="E174" s="1" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" ht="372" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
-        <v>362</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
-        <v>363</v>
-      </c>
-      <c r="B160" s="1" t="s">
+      <c r="F174" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>372</v>
+      </c>
+      <c r="B175" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="C160" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="D160" s="1" t="s">
+      <c r="C175" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D175" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="E160" s="1" t="s">
+      <c r="E175" s="1" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" ht="136" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
-        <v>364</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
-        <v>365</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" ht="204" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
-        <v>366</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
-        <v>367</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="C164" s="1" t="s">
+      <c r="F175" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>373</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C176" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="D164" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
-        <v>368</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
-        <v>369</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" ht="102" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
-        <v>370</v>
-      </c>
-      <c r="B167" s="1" t="s">
+      <c r="D176" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="C167" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="D167" s="1" t="s">
+      <c r="E176" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="E167" s="1" t="s">
+      <c r="F176" s="1" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
-        <v>371</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
-        <v>372</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
-        <v>373</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
+    <row r="177" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
         <v>374</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" ht="136" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
-        <v>375</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
-        <v>376</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
-        <v>377</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
-        <v>378</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
-        <v>379</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
-        <v>380</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>44</v>
@@ -5746,73 +6644,88 @@
       <c r="E177" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="F177" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>396</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>322</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>407</v>
+        <v>401</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>401</v>
       </c>
     </row>
   </sheetData>
